--- a/plan/Class.xlsx
+++ b/plan/Class.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Program\Project\DirectX\GFF-TeamKumagaya\plan\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{8A4D9DED-58DC-41BA-BD96-CE4142CC3AA0}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED58F8A4-D621-4263-A396-5BBEEF1CDF6F}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12630" xr2:uid="{5D1B8D83-2438-4968-A52F-80E81893E4A7}"/>
   </bookViews>
@@ -30,11 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="35">
-  <si>
-    <t>Entity</t>
-    <phoneticPr fontId="1"/>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="36">
   <si>
     <t>Collider</t>
     <phoneticPr fontId="1"/>
@@ -71,10 +67,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>Character</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>HP</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -190,6 +182,18 @@
   </si>
   <si>
     <t>Image</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>IEntity</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ICharacter</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>IEntity</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -222,7 +226,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="8">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -304,19 +308,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
       <left style="medium">
         <color indexed="64"/>
       </left>
@@ -335,7 +326,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -352,36 +343,42 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -698,10 +695,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9FB42F90-6CB7-4D29-B725-E4793F6B5081}">
-  <dimension ref="B1:I16"/>
+  <dimension ref="B1:I18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -712,230 +709,246 @@
     <row r="1" spans="2:9" ht="19.5" thickBot="1" x14ac:dyDescent="0.45"/>
     <row r="2" spans="2:9" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B2" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="D2" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="E2" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="G2" s="14" t="s">
-        <v>25</v>
+      <c r="G2" s="9" t="s">
+        <v>23</v>
       </c>
       <c r="H2" s="5" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="3" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B3" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D3" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="E3" s="2"/>
+      <c r="G3" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="I3" s="8"/>
+    </row>
+    <row r="4" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="B4" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="C4" s="13"/>
+      <c r="D4" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G4" s="15"/>
+      <c r="H4" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="I4" s="8"/>
+    </row>
+    <row r="5" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="B5" s="13"/>
+      <c r="C5" s="13"/>
+      <c r="D5" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E5" s="1"/>
+      <c r="G5" s="15"/>
+      <c r="H5" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="I5" s="8"/>
+    </row>
+    <row r="6" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="B6" s="13"/>
+      <c r="C6" s="13"/>
+      <c r="D6" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E6" s="1"/>
+      <c r="G6" s="15"/>
+      <c r="H6" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="I6" s="8"/>
+    </row>
+    <row r="7" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="B7" s="13"/>
+      <c r="C7" s="13"/>
+      <c r="D7" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="E7" s="1"/>
+      <c r="G7" s="15"/>
+      <c r="H7" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="I7" s="8"/>
+    </row>
+    <row r="8" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="B8" s="17" t="s">
+        <v>9</v>
+      </c>
+      <c r="C8" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="D8" s="7"/>
+      <c r="E8" s="7"/>
+      <c r="G8" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="H8" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="I8" s="8"/>
+    </row>
+    <row r="9" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="B9" s="17"/>
+      <c r="C9" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="D9" s="7"/>
+      <c r="E9" s="7"/>
+      <c r="G9" s="11"/>
+      <c r="H9" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="I9" s="8"/>
+    </row>
+    <row r="10" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="B10" s="17"/>
+      <c r="C10" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="D10" s="7"/>
+      <c r="E10" s="7"/>
+      <c r="G10" s="11"/>
+      <c r="H10" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="I10" s="8"/>
+    </row>
+    <row r="11" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="B11" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="C11" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="D11" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="E11" s="7"/>
+      <c r="G11" s="11"/>
+      <c r="H11" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="I11" s="8"/>
+    </row>
+    <row r="12" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="B12" s="12"/>
+      <c r="C12" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="D12" s="7"/>
+      <c r="E12" s="7"/>
+    </row>
+    <row r="13" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="B13" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="C13" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="D13" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="E13" s="7"/>
+    </row>
+    <row r="14" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="B14" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="C14" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="D14" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="E14" s="7"/>
+    </row>
+    <row r="15" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="B15" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="C15" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="D15" s="7"/>
+      <c r="E15" s="7" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="16" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="B16" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="C16" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="D16" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="D3" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="E3" s="2"/>
-      <c r="G3" s="13" t="s">
-        <v>8</v>
-      </c>
-      <c r="H3" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="I3" s="12"/>
-    </row>
-    <row r="4" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B4" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="C4" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="G4" s="8"/>
-      <c r="H4" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="I4" s="12"/>
-    </row>
-    <row r="5" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B5" s="6"/>
-      <c r="C5" s="6"/>
-      <c r="D5" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E5" s="1"/>
-      <c r="G5" s="8"/>
-      <c r="H5" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="I5" s="12"/>
-    </row>
-    <row r="6" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B6" s="6"/>
-      <c r="C6" s="6"/>
-      <c r="D6" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E6" s="1"/>
-      <c r="G6" s="8"/>
-      <c r="H6" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="I6" s="12"/>
-    </row>
-    <row r="7" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B7" s="6"/>
-      <c r="C7" s="6"/>
-      <c r="D7" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="E7" s="1"/>
-      <c r="G7" s="8"/>
-      <c r="H7" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="I7" s="12"/>
-    </row>
-    <row r="8" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B8" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D8" s="1"/>
-      <c r="E8" s="1"/>
-      <c r="G8" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="H8" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="I8" s="12"/>
-    </row>
-    <row r="9" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B9" s="10"/>
-      <c r="C9" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="D9" s="1"/>
-      <c r="E9" s="1"/>
-      <c r="G9" s="11"/>
-      <c r="H9" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="I9" s="12"/>
-    </row>
-    <row r="10" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B10" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="C10" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="E10" s="1"/>
-      <c r="G10" s="11"/>
-      <c r="H10" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="I10" s="12"/>
-    </row>
-    <row r="11" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B11" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="C11" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="D11" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="E11" s="1"/>
-      <c r="G11" s="11"/>
-      <c r="H11" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="I11" s="12"/>
-    </row>
-    <row r="12" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B12" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="C12" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="D12" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="E12" s="1"/>
-    </row>
-    <row r="13" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B13" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="C13" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="D13" s="1"/>
-      <c r="E13" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="14" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B14" s="7" t="s">
+      <c r="E16" s="7"/>
+    </row>
+    <row r="17" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="B17" s="12" t="s">
         <v>30</v>
       </c>
-      <c r="C14" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="D14" s="7" t="s">
+      <c r="C17" s="16"/>
+      <c r="D17" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="E14" s="1"/>
-    </row>
-    <row r="15" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B15" s="15" t="s">
+      <c r="E17" s="7"/>
+    </row>
+    <row r="18" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="B18" s="12"/>
+      <c r="C18" s="16"/>
+      <c r="D18" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="C15" s="11"/>
-      <c r="D15" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="E15" s="1"/>
-    </row>
-    <row r="16" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B16" s="15"/>
-      <c r="C16" s="11"/>
-      <c r="D16" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="E16" s="1"/>
+      <c r="E18" s="7"/>
     </row>
   </sheetData>
-  <mergeCells count="7">
+  <mergeCells count="8">
+    <mergeCell ref="B8:B10"/>
+    <mergeCell ref="B11:B12"/>
+    <mergeCell ref="B17:B18"/>
+    <mergeCell ref="C17:C18"/>
     <mergeCell ref="G8:G11"/>
-    <mergeCell ref="B15:B16"/>
-    <mergeCell ref="C15:C16"/>
     <mergeCell ref="B4:B7"/>
     <mergeCell ref="C4:C7"/>
-    <mergeCell ref="B8:B9"/>
     <mergeCell ref="G3:G7"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>